--- a/邻线干扰参数输入_V001.xlsx
+++ b/邻线干扰参数输入_V001.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\李继隆\PycharmProjects\DisturbanceCalculate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB38BEF4-FBAF-493C-AAF9-4CDD119453F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4D44C06-FDCB-408D-9B6E-EACC8CE0E003}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="33">
   <si>
     <t>序号</t>
   </si>
@@ -115,15 +115,22 @@
     <t>双端TB</t>
   </si>
   <si>
-    <t>14G</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>16G</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>右发</t>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IG</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IIG</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>左发</t>
   </si>
 </sst>
 </file>
@@ -536,10 +543,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5A02832-79FF-4A6D-B60C-EFA8B5E2C25D}">
-  <dimension ref="A1:AA2"/>
+  <dimension ref="A1:AA5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T7" sqref="T7"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -638,23 +645,26 @@
       <c r="A2">
         <v>1</v>
       </c>
+      <c r="B2" t="s">
+        <v>29</v>
+      </c>
       <c r="C2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" t="s">
         <v>28</v>
       </c>
-      <c r="D2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" t="s">
-        <v>30</v>
-      </c>
       <c r="F2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G2">
-        <v>626</v>
+        <v>590</v>
       </c>
       <c r="H2">
-        <v>626</v>
+        <v>590</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -666,13 +676,13 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="L2">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N2">
-        <v>2600</v>
+        <v>1700</v>
       </c>
       <c r="O2">
         <v>2000</v>
@@ -693,10 +703,10 @@
         <v>10</v>
       </c>
       <c r="U2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="W2">
         <v>25</v>
@@ -711,16 +721,265 @@
         <v>10000</v>
       </c>
       <c r="AA2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3">
+        <v>590</v>
+      </c>
+      <c r="H3">
+        <v>590</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="L3">
+        <v>30</v>
+      </c>
+      <c r="M3">
+        <v>4</v>
+      </c>
+      <c r="N3">
+        <v>1700</v>
+      </c>
+      <c r="O3">
+        <v>2000</v>
+      </c>
+      <c r="P3" s="3">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="R3">
+        <v>1</v>
+      </c>
+      <c r="S3">
+        <v>10</v>
+      </c>
+      <c r="T3">
+        <v>10</v>
+      </c>
+      <c r="U3">
+        <v>6</v>
+      </c>
+      <c r="V3">
+        <v>6</v>
+      </c>
+      <c r="W3">
+        <v>25</v>
+      </c>
+      <c r="X3">
+        <v>25</v>
+      </c>
+      <c r="Y3">
+        <v>10000</v>
+      </c>
+      <c r="Z3">
+        <v>10000</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4">
+        <v>590</v>
+      </c>
+      <c r="H4">
+        <v>590</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="L4">
+        <v>30</v>
+      </c>
+      <c r="M4">
+        <v>5</v>
+      </c>
+      <c r="N4">
+        <v>2000</v>
+      </c>
+      <c r="O4">
+        <v>1700</v>
+      </c>
+      <c r="P4" s="3">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="R4">
+        <v>1</v>
+      </c>
+      <c r="S4">
+        <v>10</v>
+      </c>
+      <c r="T4">
+        <v>10</v>
+      </c>
+      <c r="U4">
+        <v>6</v>
+      </c>
+      <c r="V4">
+        <v>6</v>
+      </c>
+      <c r="W4">
+        <v>25</v>
+      </c>
+      <c r="X4">
+        <v>25</v>
+      </c>
+      <c r="Y4">
+        <v>10000</v>
+      </c>
+      <c r="Z4">
+        <v>10000</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5">
+        <v>590</v>
+      </c>
+      <c r="H5">
+        <v>590</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="L5">
+        <v>30</v>
+      </c>
+      <c r="M5">
+        <v>5</v>
+      </c>
+      <c r="N5">
+        <v>2000</v>
+      </c>
+      <c r="O5">
+        <v>1700</v>
+      </c>
+      <c r="P5" s="3">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="R5">
+        <v>1</v>
+      </c>
+      <c r="S5">
+        <v>10</v>
+      </c>
+      <c r="T5">
+        <v>10</v>
+      </c>
+      <c r="U5">
+        <v>6</v>
+      </c>
+      <c r="V5">
+        <v>6</v>
+      </c>
+      <c r="W5">
+        <v>25</v>
+      </c>
+      <c r="X5">
+        <v>25</v>
+      </c>
+      <c r="Y5">
+        <v>10000</v>
+      </c>
+      <c r="Z5">
+        <v>10000</v>
+      </c>
+      <c r="AA5" t="s">
         <v>27</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA2" xr:uid="{A0261C72-6A2E-41EF-A729-561354BE4B73}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA2:AA5" xr:uid="{A0261C72-6A2E-41EF-A729-561354BE4B73}">
       <formula1>"双端TB, 左端单TB, 右端单TB, 无TB"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:F2" xr:uid="{147B4349-F599-4348-9B67-4CD4F8ABED3C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:F5" xr:uid="{147B4349-F599-4348-9B67-4CD4F8ABED3C}">
       <formula1>"左发, 右发"</formula1>
     </dataValidation>
   </dataValidations>
